--- a/sbs/vicuna_question_ru/openai_davinci_003_openai_turbo.xlsx
+++ b/sbs/vicuna_question_ru/openai_davinci_003_openai_turbo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/ru_vicuna_question/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/vicuna_question_ru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4B5F0-221F-9840-A448-428C4D28931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85C704-A39B-714A-9521-7A0AC63F22D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2970,6 +2970,9 @@
       <c r="D73" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
@@ -2984,6 +2987,9 @@
       <c r="D74" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
@@ -2998,6 +3004,9 @@
       <c r="D75" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
@@ -3012,6 +3021,9 @@
       <c r="D76" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
@@ -3026,6 +3038,9 @@
       <c r="D77" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
@@ -3040,6 +3055,9 @@
       <c r="D78" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
@@ -3054,6 +3072,9 @@
       <c r="D79" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -3068,8 +3089,11 @@
       <c r="D80" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+      <c r="E80" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3081,6 +3105,9 @@
       </c>
       <c r="D81" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="E81" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
